--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Dchs1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.6897023143771</v>
+        <v>20.88470466666667</v>
       </c>
       <c r="H2">
-        <v>20.6897023143771</v>
+        <v>62.654114</v>
       </c>
       <c r="I2">
-        <v>0.4659972792353245</v>
+        <v>0.4656575609550316</v>
       </c>
       <c r="J2">
-        <v>0.4659972792353245</v>
+        <v>0.4656575609550317</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.55147689504431</v>
+        <v>9.616272333333335</v>
       </c>
       <c r="N2">
-        <v>9.55147689504431</v>
+        <v>28.848817</v>
       </c>
       <c r="O2">
-        <v>0.3772688260303264</v>
+        <v>0.3773649226058864</v>
       </c>
       <c r="P2">
-        <v>0.3772688260303264</v>
+        <v>0.3773649226058863</v>
       </c>
       <c r="Q2">
-        <v>197.6172136211177</v>
+        <v>200.8330076759043</v>
       </c>
       <c r="R2">
-        <v>197.6172136211177</v>
+        <v>1807.497069083138</v>
       </c>
       <c r="S2">
-        <v>0.175806246470437</v>
+        <v>0.1757228294506413</v>
       </c>
       <c r="T2">
-        <v>0.175806246470437</v>
+        <v>0.1757228294506413</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.6897023143771</v>
+        <v>20.88470466666667</v>
       </c>
       <c r="H3">
-        <v>20.6897023143771</v>
+        <v>62.654114</v>
       </c>
       <c r="I3">
-        <v>0.4659972792353245</v>
+        <v>0.4656575609550316</v>
       </c>
       <c r="J3">
-        <v>0.4659972792353245</v>
+        <v>0.4656575609550317</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.1673910480353</v>
+        <v>15.18384366666667</v>
       </c>
       <c r="N3">
-        <v>15.1673910480353</v>
+        <v>45.551531</v>
       </c>
       <c r="O3">
-        <v>0.5990889029532237</v>
+        <v>0.5958493885691961</v>
       </c>
       <c r="P3">
-        <v>0.5990889029532237</v>
+        <v>0.5958493885691961</v>
       </c>
       <c r="Q3">
-        <v>313.8088056695985</v>
+        <v>317.1100906831704</v>
       </c>
       <c r="R3">
-        <v>313.8088056695985</v>
+        <v>2853.990816148534</v>
       </c>
       <c r="S3">
-        <v>0.2791737987962776</v>
+        <v>0.2774617729776788</v>
       </c>
       <c r="T3">
-        <v>0.2791737987962776</v>
+        <v>0.2774617729776788</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.6897023143771</v>
+        <v>20.88470466666667</v>
       </c>
       <c r="H4">
-        <v>20.6897023143771</v>
+        <v>62.654114</v>
       </c>
       <c r="I4">
-        <v>0.4659972792353245</v>
+        <v>0.4656575609550316</v>
       </c>
       <c r="J4">
-        <v>0.4659972792353245</v>
+        <v>0.4656575609550317</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.17937759208343</v>
+        <v>0.2118566666666667</v>
       </c>
       <c r="N4">
-        <v>0.17937759208343</v>
+        <v>0.63557</v>
       </c>
       <c r="O4">
-        <v>0.007085142363331703</v>
+        <v>0.008313749013022724</v>
       </c>
       <c r="P4">
-        <v>0.007085142363331703</v>
+        <v>0.008313749013022722</v>
       </c>
       <c r="Q4">
-        <v>3.711268982075933</v>
+        <v>4.424563914997778</v>
       </c>
       <c r="R4">
-        <v>3.711268982075933</v>
+        <v>39.82107523498</v>
       </c>
       <c r="S4">
-        <v>0.003301657064307511</v>
+        <v>0.003871360087796463</v>
       </c>
       <c r="T4">
-        <v>0.003301657064307511</v>
+        <v>0.003871360087796463</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.6897023143771</v>
+        <v>20.88470466666667</v>
       </c>
       <c r="H5">
-        <v>20.6897023143771</v>
+        <v>62.654114</v>
       </c>
       <c r="I5">
-        <v>0.4659972792353245</v>
+        <v>0.4656575609550316</v>
       </c>
       <c r="J5">
-        <v>0.4659972792353245</v>
+        <v>0.4656575609550317</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.419183936935788</v>
+        <v>0.4707146666666667</v>
       </c>
       <c r="N5">
-        <v>0.419183936935788</v>
+        <v>1.412144</v>
       </c>
       <c r="O5">
-        <v>0.01655712865311825</v>
+        <v>0.01847193981189477</v>
       </c>
       <c r="P5">
-        <v>0.01655712865311825</v>
+        <v>0.01847193981189477</v>
       </c>
       <c r="Q5">
-        <v>8.672790870170077</v>
+        <v>9.830736795601778</v>
       </c>
       <c r="R5">
-        <v>8.672790870170077</v>
+        <v>88.47663116041601</v>
       </c>
       <c r="S5">
-        <v>0.007715576904302337</v>
+        <v>0.008601598438915066</v>
       </c>
       <c r="T5">
-        <v>0.007715576904302337</v>
+        <v>0.008601598438915068</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.5000250602195</v>
+        <v>21.652497</v>
       </c>
       <c r="H6">
-        <v>21.5000250602195</v>
+        <v>64.957491</v>
       </c>
       <c r="I6">
-        <v>0.4842483004016686</v>
+        <v>0.4827767068068095</v>
       </c>
       <c r="J6">
-        <v>0.4842483004016686</v>
+        <v>0.4827767068068096</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.55147689504431</v>
+        <v>9.616272333333335</v>
       </c>
       <c r="N6">
-        <v>9.55147689504431</v>
+        <v>28.848817</v>
       </c>
       <c r="O6">
-        <v>0.3772688260303264</v>
+        <v>0.3773649226058864</v>
       </c>
       <c r="P6">
-        <v>0.3772688260303264</v>
+        <v>0.3773649226058863</v>
       </c>
       <c r="Q6">
-        <v>205.3569926055602</v>
+        <v>208.216307848683</v>
       </c>
       <c r="R6">
-        <v>205.3569926055602</v>
+        <v>1873.946770638147</v>
       </c>
       <c r="S6">
-        <v>0.1826917877997183</v>
+        <v>0.1821829946000764</v>
       </c>
       <c r="T6">
-        <v>0.1826917877997183</v>
+        <v>0.1821829946000764</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.5000250602195</v>
+        <v>21.652497</v>
       </c>
       <c r="H7">
-        <v>21.5000250602195</v>
+        <v>64.957491</v>
       </c>
       <c r="I7">
-        <v>0.4842483004016686</v>
+        <v>0.4827767068068095</v>
       </c>
       <c r="J7">
-        <v>0.4842483004016686</v>
+        <v>0.4827767068068096</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.1673910480353</v>
+        <v>15.18384366666667</v>
       </c>
       <c r="N7">
-        <v>15.1673910480353</v>
+        <v>45.551531</v>
       </c>
       <c r="O7">
-        <v>0.5990889029532237</v>
+        <v>0.5958493885691961</v>
       </c>
       <c r="P7">
-        <v>0.5990889029532237</v>
+        <v>0.5958493885691961</v>
       </c>
       <c r="Q7">
-        <v>326.0992876309078</v>
+        <v>328.768129440969</v>
       </c>
       <c r="R7">
-        <v>326.0992876309078</v>
+        <v>2958.913164968721</v>
       </c>
       <c r="S7">
-        <v>0.2901077830445988</v>
+        <v>0.2876622055662875</v>
       </c>
       <c r="T7">
-        <v>0.2901077830445988</v>
+        <v>0.2876622055662876</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.5000250602195</v>
+        <v>21.652497</v>
       </c>
       <c r="H8">
-        <v>21.5000250602195</v>
+        <v>64.957491</v>
       </c>
       <c r="I8">
-        <v>0.4842483004016686</v>
+        <v>0.4827767068068095</v>
       </c>
       <c r="J8">
-        <v>0.4842483004016686</v>
+        <v>0.4827767068068096</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.17937759208343</v>
+        <v>0.2118566666666667</v>
       </c>
       <c r="N8">
-        <v>0.17937759208343</v>
+        <v>0.63557</v>
       </c>
       <c r="O8">
-        <v>0.007085142363331703</v>
+        <v>0.008313749013022724</v>
       </c>
       <c r="P8">
-        <v>0.007085142363331703</v>
+        <v>0.008313749013022722</v>
       </c>
       <c r="Q8">
-        <v>3.856622725035576</v>
+        <v>4.58722583943</v>
       </c>
       <c r="R8">
-        <v>3.856622725035576</v>
+        <v>41.28503255487</v>
       </c>
       <c r="S8">
-        <v>0.003430968147547239</v>
+        <v>0.004013684369725473</v>
       </c>
       <c r="T8">
-        <v>0.003430968147547239</v>
+        <v>0.004013684369725473</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.5000250602195</v>
+        <v>21.652497</v>
       </c>
       <c r="H9">
-        <v>21.5000250602195</v>
+        <v>64.957491</v>
       </c>
       <c r="I9">
-        <v>0.4842483004016686</v>
+        <v>0.4827767068068095</v>
       </c>
       <c r="J9">
-        <v>0.4842483004016686</v>
+        <v>0.4827767068068096</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.419183936935788</v>
+        <v>0.4707146666666667</v>
       </c>
       <c r="N9">
-        <v>0.419183936935788</v>
+        <v>1.412144</v>
       </c>
       <c r="O9">
-        <v>0.01655712865311825</v>
+        <v>0.01847193981189477</v>
       </c>
       <c r="P9">
-        <v>0.01655712865311825</v>
+        <v>0.01847193981189477</v>
       </c>
       <c r="Q9">
-        <v>9.012465148960912</v>
+        <v>10.192147907856</v>
       </c>
       <c r="R9">
-        <v>9.012465148960912</v>
+        <v>91.72933117070401</v>
       </c>
       <c r="S9">
-        <v>0.008017761409804283</v>
+        <v>0.008917822270720155</v>
       </c>
       <c r="T9">
-        <v>0.008017761409804283</v>
+        <v>0.008917822270720157</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>2.20903467038303</v>
+        <v>0.007427333333333334</v>
       </c>
       <c r="H10">
-        <v>2.20903467038303</v>
+        <v>0.022282</v>
       </c>
       <c r="I10">
-        <v>0.04975442036300684</v>
+        <v>0.0001656041576647308</v>
       </c>
       <c r="J10">
-        <v>0.04975442036300684</v>
+        <v>0.0001656041576647308</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.55147689504431</v>
+        <v>9.616272333333335</v>
       </c>
       <c r="N10">
-        <v>9.55147689504431</v>
+        <v>28.848817</v>
       </c>
       <c r="O10">
-        <v>0.3772688260303264</v>
+        <v>0.3773649226058864</v>
       </c>
       <c r="P10">
-        <v>0.3772688260303264</v>
+        <v>0.3773649226058863</v>
       </c>
       <c r="Q10">
-        <v>21.09954361451533</v>
+        <v>0.07142326004377779</v>
       </c>
       <c r="R10">
-        <v>21.09954361451533</v>
+        <v>0.6428093403940001</v>
       </c>
       <c r="S10">
-        <v>0.01877079176017096</v>
+        <v>6.249320014036413E-05</v>
       </c>
       <c r="T10">
-        <v>0.01877079176017096</v>
+        <v>6.249320014036412E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>2.20903467038303</v>
+        <v>0.007427333333333334</v>
       </c>
       <c r="H11">
-        <v>2.20903467038303</v>
+        <v>0.022282</v>
       </c>
       <c r="I11">
-        <v>0.04975442036300684</v>
+        <v>0.0001656041576647308</v>
       </c>
       <c r="J11">
-        <v>0.04975442036300684</v>
+        <v>0.0001656041576647308</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.1673910480353</v>
+        <v>15.18384366666667</v>
       </c>
       <c r="N11">
-        <v>15.1673910480353</v>
+        <v>45.551531</v>
       </c>
       <c r="O11">
-        <v>0.5990889029532237</v>
+        <v>0.5958493885691961</v>
       </c>
       <c r="P11">
-        <v>0.5990889029532237</v>
+        <v>0.5958493885691961</v>
       </c>
       <c r="Q11">
-        <v>33.50529268436718</v>
+        <v>0.1127754681935556</v>
       </c>
       <c r="R11">
-        <v>33.50529268436718</v>
+        <v>1.014979213742</v>
       </c>
       <c r="S11">
-        <v>0.0298073211123473</v>
+        <v>9.867513608904658E-05</v>
       </c>
       <c r="T11">
-        <v>0.0298073211123473</v>
+        <v>9.867513608904658E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2.20903467038303</v>
+        <v>0.007427333333333334</v>
       </c>
       <c r="H12">
-        <v>2.20903467038303</v>
+        <v>0.022282</v>
       </c>
       <c r="I12">
-        <v>0.04975442036300684</v>
+        <v>0.0001656041576647308</v>
       </c>
       <c r="J12">
-        <v>0.04975442036300684</v>
+        <v>0.0001656041576647308</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.17937759208343</v>
+        <v>0.2118566666666667</v>
       </c>
       <c r="N12">
-        <v>0.17937759208343</v>
+        <v>0.63557</v>
       </c>
       <c r="O12">
-        <v>0.007085142363331703</v>
+        <v>0.008313749013022724</v>
       </c>
       <c r="P12">
-        <v>0.007085142363331703</v>
+        <v>0.008313749013022722</v>
       </c>
       <c r="Q12">
-        <v>0.3962513200021214</v>
+        <v>0.001573530082222222</v>
       </c>
       <c r="R12">
-        <v>0.3962513200021214</v>
+        <v>0.01416177074</v>
       </c>
       <c r="S12">
-        <v>0.0003525171514769533</v>
+        <v>1.376791402337615E-06</v>
       </c>
       <c r="T12">
-        <v>0.0003525171514769533</v>
+        <v>1.376791402337615E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.007427333333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.022282</v>
+      </c>
+      <c r="I13">
+        <v>0.0001656041576647308</v>
+      </c>
+      <c r="J13">
+        <v>0.0001656041576647308</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4707146666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.412144</v>
+      </c>
+      <c r="O13">
+        <v>0.01847193981189477</v>
+      </c>
+      <c r="P13">
+        <v>0.01847193981189477</v>
+      </c>
+      <c r="Q13">
+        <v>0.003496154734222223</v>
+      </c>
+      <c r="R13">
+        <v>0.031465392608</v>
+      </c>
+      <c r="S13">
+        <v>3.059030032982439E-06</v>
+      </c>
+      <c r="T13">
+        <v>3.059030032982439E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.305291666666667</v>
+      </c>
+      <c r="H14">
+        <v>6.915875</v>
+      </c>
+      <c r="I14">
+        <v>0.05140012808049411</v>
+      </c>
+      <c r="J14">
+        <v>0.05140012808049412</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>9.616272333333335</v>
+      </c>
+      <c r="N14">
+        <v>28.848817</v>
+      </c>
+      <c r="O14">
+        <v>0.3773649226058864</v>
+      </c>
+      <c r="P14">
+        <v>0.3773649226058863</v>
+      </c>
+      <c r="Q14">
+        <v>22.16831247443056</v>
+      </c>
+      <c r="R14">
+        <v>199.514812269875</v>
+      </c>
+      <c r="S14">
+        <v>0.01939660535502831</v>
+      </c>
+      <c r="T14">
+        <v>0.01939660535502831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.305291666666667</v>
+      </c>
+      <c r="H15">
+        <v>6.915875</v>
+      </c>
+      <c r="I15">
+        <v>0.05140012808049411</v>
+      </c>
+      <c r="J15">
+        <v>0.05140012808049412</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>15.18384366666667</v>
+      </c>
+      <c r="N15">
+        <v>45.551531</v>
+      </c>
+      <c r="O15">
+        <v>0.5958493885691961</v>
+      </c>
+      <c r="P15">
+        <v>0.5958493885691961</v>
+      </c>
+      <c r="Q15">
+        <v>35.00318827273611</v>
+      </c>
+      <c r="R15">
+        <v>315.028694454625</v>
+      </c>
+      <c r="S15">
+        <v>0.03062673488914078</v>
+      </c>
+      <c r="T15">
+        <v>0.03062673488914079</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.20903467038303</v>
-      </c>
-      <c r="H13">
-        <v>2.20903467038303</v>
-      </c>
-      <c r="I13">
-        <v>0.04975442036300684</v>
-      </c>
-      <c r="J13">
-        <v>0.04975442036300684</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.419183936935788</v>
-      </c>
-      <c r="N13">
-        <v>0.419183936935788</v>
-      </c>
-      <c r="O13">
-        <v>0.01655712865311825</v>
-      </c>
-      <c r="P13">
-        <v>0.01655712865311825</v>
-      </c>
-      <c r="Q13">
-        <v>0.9259918499588092</v>
-      </c>
-      <c r="R13">
-        <v>0.9259918499588092</v>
-      </c>
-      <c r="S13">
-        <v>0.0008237903390116308</v>
-      </c>
-      <c r="T13">
-        <v>0.0008237903390116308</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.305291666666667</v>
+      </c>
+      <c r="H16">
+        <v>6.915875</v>
+      </c>
+      <c r="I16">
+        <v>0.05140012808049411</v>
+      </c>
+      <c r="J16">
+        <v>0.05140012808049412</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2118566666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.63557</v>
+      </c>
+      <c r="O16">
+        <v>0.008313749013022724</v>
+      </c>
+      <c r="P16">
+        <v>0.008313749013022722</v>
+      </c>
+      <c r="Q16">
+        <v>0.4883914081944444</v>
+      </c>
+      <c r="R16">
+        <v>4.395522673749999</v>
+      </c>
+      <c r="S16">
+        <v>0.0004273277640984495</v>
+      </c>
+      <c r="T16">
+        <v>0.0004273277640984495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.305291666666667</v>
+      </c>
+      <c r="H17">
+        <v>6.915875</v>
+      </c>
+      <c r="I17">
+        <v>0.05140012808049411</v>
+      </c>
+      <c r="J17">
+        <v>0.05140012808049412</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4707146666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.412144</v>
+      </c>
+      <c r="O17">
+        <v>0.01847193981189477</v>
+      </c>
+      <c r="P17">
+        <v>0.01847193981189477</v>
+      </c>
+      <c r="Q17">
+        <v>1.085134598444444</v>
+      </c>
+      <c r="R17">
+        <v>9.766211386</v>
+      </c>
+      <c r="S17">
+        <v>0.0009494600722265697</v>
+      </c>
+      <c r="T17">
+        <v>0.0009494600722265698</v>
       </c>
     </row>
   </sheetData>
